--- a/Code/Results/Cases/Case_3_191/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_191/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.496383289435698</v>
+        <v>1.916968030515761</v>
       </c>
       <c r="C2">
-        <v>0.9265185761339865</v>
+        <v>0.4206471542703127</v>
       </c>
       <c r="D2">
-        <v>0.005918222201163559</v>
+        <v>0.05283817609281094</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.661363312025486</v>
+        <v>4.569849501827576</v>
       </c>
       <c r="G2">
-        <v>0.0007904138015495686</v>
+        <v>0.002543688357559137</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.442982008604659</v>
+        <v>0.3550245360243167</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.00534718062363</v>
+        <v>1.815928658003202</v>
       </c>
       <c r="C3">
-        <v>0.7915674753675717</v>
+        <v>0.3932419509856686</v>
       </c>
       <c r="D3">
-        <v>0.004556553776378536</v>
+        <v>0.05426609883985556</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.896244573364186</v>
+        <v>4.391096460491724</v>
       </c>
       <c r="G3">
-        <v>0.0008031961352659215</v>
+        <v>0.002550902183112819</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3876860878505397</v>
+        <v>0.3445332050459058</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.712774749216862</v>
+        <v>1.755608591331111</v>
       </c>
       <c r="C4">
-        <v>0.7112611724612918</v>
+        <v>0.3768376215979004</v>
       </c>
       <c r="D4">
-        <v>0.003825358832292736</v>
+        <v>0.05520331806364531</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.44278072428807</v>
+        <v>4.28321579520653</v>
       </c>
       <c r="G4">
-        <v>0.0008111724661922558</v>
+        <v>0.00255555492809739</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3549740051114725</v>
+        <v>0.3383344652334586</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.595459730966468</v>
+        <v>1.731456115233584</v>
       </c>
       <c r="C5">
-        <v>0.6790769842285158</v>
+        <v>0.3702577913089726</v>
       </c>
       <c r="D5">
-        <v>0.003549940453540401</v>
+        <v>0.0556004025904322</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.261500621668063</v>
+        <v>4.239714173020019</v>
       </c>
       <c r="G5">
-        <v>0.0008144598915802437</v>
+        <v>0.002557507374214049</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3419117861341192</v>
+        <v>0.3358689212163597</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.576086087440217</v>
+        <v>1.727471385856688</v>
       </c>
       <c r="C6">
-        <v>0.6737628103056466</v>
+        <v>0.3691715270662996</v>
       </c>
       <c r="D6">
-        <v>0.003505467909379334</v>
+        <v>0.05566725251143012</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.231595187357613</v>
+        <v>4.232518271460407</v>
       </c>
       <c r="G6">
-        <v>0.0008150081318511231</v>
+        <v>0.002557834990466431</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3397578443128992</v>
+        <v>0.3354631556382941</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.711185272592502</v>
+        <v>1.755281132645678</v>
       </c>
       <c r="C7">
-        <v>0.7108250575782051</v>
+        <v>0.3767484598433839</v>
       </c>
       <c r="D7">
-        <v>0.003821557795879116</v>
+        <v>0.05520861195966731</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.440322438055091</v>
+        <v>4.282627266132636</v>
       </c>
       <c r="G7">
-        <v>0.0008112166454589038</v>
+        <v>0.002555581030683523</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3547968110239026</v>
+        <v>0.3383009699028321</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.32500652625788</v>
+        <v>1.881770684817354</v>
       </c>
       <c r="C8">
-        <v>0.8793921199589079</v>
+        <v>0.4111093969792705</v>
       </c>
       <c r="D8">
-        <v>0.005424468101040247</v>
+        <v>0.0533179458913402</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.393780815976868</v>
+        <v>4.507819877814995</v>
       </c>
       <c r="G8">
-        <v>0.0007947977051858679</v>
+        <v>0.002546129452874193</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4236306019648595</v>
+        <v>0.3513563220859055</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.61730934851056</v>
+        <v>2.143638978230172</v>
       </c>
       <c r="C9">
-        <v>1.235628498937785</v>
+        <v>0.4819033789033824</v>
       </c>
       <c r="D9">
-        <v>0.009608188854308253</v>
+        <v>0.05009223149239261</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.424504692948858</v>
+        <v>4.964804713883211</v>
       </c>
       <c r="G9">
-        <v>0.0007633594477651696</v>
+        <v>0.002529357084692766</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5707707725809428</v>
+        <v>0.378915311869747</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.650992456238669</v>
+        <v>2.34474894872659</v>
       </c>
       <c r="C10">
-        <v>1.522269726276477</v>
+        <v>0.5360861669600467</v>
       </c>
       <c r="D10">
-        <v>0.01368060774366242</v>
+        <v>0.04801901271832598</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.06786203863544</v>
+        <v>5.310674695877594</v>
       </c>
       <c r="G10">
-        <v>0.0007402929897888123</v>
+        <v>0.002518093708430713</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6902322030587271</v>
+        <v>0.4004003587640454</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.148350800119488</v>
+        <v>2.43819769760853</v>
       </c>
       <c r="C11">
-        <v>1.660810477520783</v>
+        <v>0.5612272148414377</v>
       </c>
       <c r="D11">
-        <v>0.01586079119964268</v>
+        <v>0.04714095936677865</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.86379895291083</v>
+        <v>5.470383752351438</v>
       </c>
       <c r="G11">
-        <v>0.0007296812357076021</v>
+        <v>0.002513196497235921</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7481989714887902</v>
+        <v>0.4104531245575771</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.341545832580778</v>
+        <v>2.473871669326115</v>
       </c>
       <c r="C12">
-        <v>1.714742489904268</v>
+        <v>0.5708199888647414</v>
       </c>
       <c r="D12">
-        <v>0.0167459083699768</v>
+        <v>0.04681788111540541</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.17382622812391</v>
+        <v>5.531215428690473</v>
       </c>
       <c r="G12">
-        <v>0.0007256322813609463</v>
+        <v>0.002511374378877525</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7707960756160617</v>
+        <v>0.4143007661348435</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.29970409873215</v>
+        <v>2.46617580200774</v>
       </c>
       <c r="C13">
-        <v>1.703056337222733</v>
+        <v>0.5687507685775586</v>
       </c>
       <c r="D13">
-        <v>0.01655240042123651</v>
+        <v>0.04688704170395397</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.10664183672435</v>
+        <v>5.518098325323649</v>
       </c>
       <c r="G13">
-        <v>0.0007265059025426308</v>
+        <v>0.00251176536974335</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7658983062002136</v>
+        <v>0.413470277633607</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.164141440101048</v>
+        <v>2.441126838126479</v>
       </c>
       <c r="C14">
-        <v>1.665216065638049</v>
+        <v>0.5620149582173894</v>
       </c>
       <c r="D14">
-        <v>0.01593233402947192</v>
+        <v>0.04711419031964681</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.88912126145323</v>
+        <v>5.47538125822598</v>
       </c>
       <c r="G14">
-        <v>0.0007293488259520344</v>
+        <v>0.002513045943438502</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.750044266414136</v>
+        <v>0.4107688487848691</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.081770114876178</v>
+        <v>2.425821137372509</v>
       </c>
       <c r="C15">
-        <v>1.642239319859698</v>
+        <v>0.5578985547312527</v>
       </c>
       <c r="D15">
-        <v>0.0155607036825316</v>
+        <v>0.04725455434801873</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.75706296857777</v>
+        <v>5.449262205104333</v>
       </c>
       <c r="G15">
-        <v>0.0007310857708010219</v>
+        <v>0.002513834537856943</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.740421626275193</v>
+        <v>0.4091194913949607</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.619111422968956</v>
+        <v>2.338681748977706</v>
       </c>
       <c r="C16">
-        <v>1.513403551475676</v>
+        <v>0.5344531891155384</v>
       </c>
       <c r="D16">
-        <v>0.01354570861381177</v>
+        <v>0.04807771035276609</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.01695280909104</v>
+        <v>5.30028609738838</v>
       </c>
       <c r="G16">
-        <v>0.0007409830251472367</v>
+        <v>0.002518418292045193</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6865268906021811</v>
+        <v>0.3997490662456471</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.342845773014631</v>
+        <v>2.285730581308599</v>
       </c>
       <c r="C17">
-        <v>1.436643843743525</v>
+        <v>0.5201975502317282</v>
       </c>
       <c r="D17">
-        <v>0.01240134450069519</v>
+        <v>0.04859940005987795</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.576376856223106</v>
+        <v>5.209510096509803</v>
       </c>
       <c r="G17">
-        <v>0.0007470156425406883</v>
+        <v>0.002521288140041926</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6544724119001302</v>
+        <v>0.3940726223513025</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.186430258787141</v>
+        <v>2.255458928533358</v>
       </c>
       <c r="C18">
-        <v>1.393238968184562</v>
+        <v>0.5120443965498112</v>
       </c>
       <c r="D18">
-        <v>0.01177306843032611</v>
+        <v>0.04890558226980524</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.327402166347071</v>
+        <v>5.157520564986726</v>
       </c>
       <c r="G18">
-        <v>0.0007504752334069209</v>
+        <v>0.002522960139102609</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6363675522450052</v>
+        <v>0.3908339076154732</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.133871922867058</v>
+        <v>2.245241007009213</v>
       </c>
       <c r="C19">
-        <v>1.378662873461906</v>
+        <v>0.5092917879033507</v>
       </c>
       <c r="D19">
-        <v>0.01156515834106386</v>
+        <v>0.04901029948857882</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.243820238672782</v>
+        <v>5.139955631132636</v>
       </c>
       <c r="G19">
-        <v>0.0007516451982513794</v>
+        <v>0.002523529920784051</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6302912323542955</v>
+        <v>0.3897418164565636</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.371991307783503</v>
+        <v>2.291348199157255</v>
       </c>
       <c r="C20">
-        <v>1.444735979655889</v>
+        <v>0.5217102833634044</v>
       </c>
       <c r="D20">
-        <v>0.01251998645349772</v>
+        <v>0.04854323142926376</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.622807262738917</v>
+        <v>5.219150247943958</v>
       </c>
       <c r="G20">
-        <v>0.0007463746044670778</v>
+        <v>0.002520980433004594</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6578494879740759</v>
+        <v>0.3946741699277823</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.203818906520894</v>
+        <v>2.448476499734966</v>
       </c>
       <c r="C21">
-        <v>1.676288033199512</v>
+        <v>0.5639914516879116</v>
       </c>
       <c r="D21">
-        <v>0.0161127311018916</v>
+        <v>0.04704721503480513</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.95276298640039</v>
+        <v>5.487918607558868</v>
       </c>
       <c r="G21">
-        <v>0.0007285147418778419</v>
+        <v>0.00251266893182599</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7546822872108265</v>
+        <v>0.411561208515181</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.776399919330345</v>
+        <v>2.552843839688876</v>
       </c>
       <c r="C22">
-        <v>1.836384774486305</v>
+        <v>0.5920474054196916</v>
       </c>
       <c r="D22">
-        <v>0.01881623028357993</v>
+        <v>0.04612442978861608</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.87332162144725</v>
+        <v>5.665639604176533</v>
       </c>
       <c r="G22">
-        <v>0.0007166556277467512</v>
+        <v>0.002507425334750576</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.82181816126824</v>
+        <v>0.4228364870939458</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.467774600052905</v>
+        <v>2.496986174824087</v>
       </c>
       <c r="C23">
-        <v>1.750016698256729</v>
+        <v>0.5770342205564134</v>
       </c>
       <c r="D23">
-        <v>0.01733574988262276</v>
+        <v>0.04661188760558943</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.37663948647702</v>
+        <v>5.570593440261121</v>
       </c>
       <c r="G23">
-        <v>0.0007230074867604213</v>
+        <v>0.002510206773803425</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7855841606613296</v>
+        <v>0.4167965745865416</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.358807163513575</v>
+        <v>2.288807942855101</v>
       </c>
       <c r="C24">
-        <v>1.441075287321382</v>
+        <v>0.5210262441294731</v>
       </c>
       <c r="D24">
-        <v>0.01246625701300275</v>
+        <v>0.04856860578636812</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.601802745808669</v>
+        <v>5.214791317193686</v>
       </c>
       <c r="G24">
-        <v>0.0007466644436889452</v>
+        <v>0.002521119478630341</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.656321712701569</v>
+        <v>0.394402133238188</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.255445708126445</v>
+        <v>2.071287536128068</v>
       </c>
       <c r="C25">
-        <v>1.135660897224454</v>
+        <v>0.4623772575969838</v>
       </c>
       <c r="D25">
-        <v>0.008332095234802495</v>
+        <v>0.05091298837378666</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.853001393174878</v>
+        <v>4.839455023187185</v>
       </c>
       <c r="G25">
-        <v>0.0007718228538317543</v>
+        <v>0.002533707351248196</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5293016762849589</v>
+        <v>0.3712458148970654</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_191/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_191/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.916968030515761</v>
+        <v>3.496383289435585</v>
       </c>
       <c r="C2">
-        <v>0.4206471542703127</v>
+        <v>0.9265185761343275</v>
       </c>
       <c r="D2">
-        <v>0.05283817609281094</v>
+        <v>0.005918222201376722</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.569849501827576</v>
+        <v>6.661363312025514</v>
       </c>
       <c r="G2">
-        <v>0.002543688357559137</v>
+        <v>0.0007904138016035389</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3550245360243167</v>
+        <v>0.44298200860473</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.815928658003202</v>
+        <v>3.005347180623687</v>
       </c>
       <c r="C3">
-        <v>0.3932419509856686</v>
+        <v>0.7915674753673443</v>
       </c>
       <c r="D3">
-        <v>0.05426609883985556</v>
+        <v>0.004556553776227545</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.391096460491724</v>
+        <v>5.896244573364157</v>
       </c>
       <c r="G3">
-        <v>0.002550902183112819</v>
+        <v>0.0008031961353273819</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3445332050459058</v>
+        <v>0.3876860878505681</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.755608591331111</v>
+        <v>2.712774749217033</v>
       </c>
       <c r="C4">
-        <v>0.3768376215979004</v>
+        <v>0.7112611724609792</v>
       </c>
       <c r="D4">
-        <v>0.05520331806364531</v>
+        <v>0.003825358832294512</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.28321579520653</v>
+        <v>5.442780724288014</v>
       </c>
       <c r="G4">
-        <v>0.00255555492809739</v>
+        <v>0.000811172466076996</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3383344652334586</v>
+        <v>0.3549740051114583</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.731456115233584</v>
+        <v>2.595459730966695</v>
       </c>
       <c r="C5">
-        <v>0.3702577913089726</v>
+        <v>0.6790769842282884</v>
       </c>
       <c r="D5">
-        <v>0.0556004025904322</v>
+        <v>0.003549940453966727</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.239714173020019</v>
+        <v>5.261500621668091</v>
       </c>
       <c r="G5">
-        <v>0.002557507374214049</v>
+        <v>0.0008144598915733576</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3358689212163597</v>
+        <v>0.3419117861342613</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.727471385856688</v>
+        <v>2.57608608744016</v>
       </c>
       <c r="C6">
-        <v>0.3691715270662996</v>
+        <v>0.6737628103056466</v>
       </c>
       <c r="D6">
-        <v>0.05566725251143012</v>
+        <v>0.003505467909295845</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.232518271460407</v>
+        <v>5.231595187357613</v>
       </c>
       <c r="G6">
-        <v>0.002557834990466431</v>
+        <v>0.0008150081317714091</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3354631556382941</v>
+        <v>0.3397578443127429</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.755281132645678</v>
+        <v>2.711185272592843</v>
       </c>
       <c r="C7">
-        <v>0.3767484598433839</v>
+        <v>0.7108250575781483</v>
       </c>
       <c r="D7">
-        <v>0.05520861195966731</v>
+        <v>0.003821557795868458</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.282627266132636</v>
+        <v>5.440322438055119</v>
       </c>
       <c r="G7">
-        <v>0.002555581030683523</v>
+        <v>0.0008112166455978268</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3383009699028321</v>
+        <v>0.3547968110239168</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.881770684817354</v>
+        <v>3.32500652625788</v>
       </c>
       <c r="C8">
-        <v>0.4111093969792705</v>
+        <v>0.87939211995797</v>
       </c>
       <c r="D8">
-        <v>0.0533179458913402</v>
+        <v>0.00542446810123387</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.507819877814995</v>
+        <v>6.393780815976925</v>
       </c>
       <c r="G8">
-        <v>0.002546129452874193</v>
+        <v>0.0007947977051795396</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3513563220859055</v>
+        <v>0.4236306019646889</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.143638978230172</v>
+        <v>4.61730934851056</v>
       </c>
       <c r="C9">
-        <v>0.4819033789033824</v>
+        <v>1.235628498938297</v>
       </c>
       <c r="D9">
-        <v>0.05009223149239261</v>
+        <v>0.009608188854006272</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.964804713883211</v>
+        <v>8.424504692948744</v>
       </c>
       <c r="G9">
-        <v>0.002529357084692766</v>
+        <v>0.0007633594477937854</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.378915311869747</v>
+        <v>0.5707707725810565</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.34474894872659</v>
+        <v>5.650992456238782</v>
       </c>
       <c r="C10">
-        <v>0.5360861669600467</v>
+        <v>1.522269726276022</v>
       </c>
       <c r="D10">
-        <v>0.04801901271832598</v>
+        <v>0.01368060774411717</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>5.310674695877594</v>
+        <v>10.06786203863544</v>
       </c>
       <c r="G10">
-        <v>0.002518093708430713</v>
+        <v>0.0007402929896816157</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4004003587640454</v>
+        <v>0.6902322030586276</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.43819769760853</v>
+        <v>6.14835080011926</v>
       </c>
       <c r="C11">
-        <v>0.5612272148414377</v>
+        <v>1.660810477520783</v>
       </c>
       <c r="D11">
-        <v>0.04714095936677865</v>
+        <v>0.01586079119962491</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5.470383752351438</v>
+        <v>10.86379895291094</v>
       </c>
       <c r="G11">
-        <v>0.002513196497235921</v>
+        <v>0.0007296812358136191</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4104531245575771</v>
+        <v>0.7481989714889039</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.473871669326115</v>
+        <v>6.341545832580891</v>
       </c>
       <c r="C12">
-        <v>0.5708199888647414</v>
+        <v>1.714742489904268</v>
       </c>
       <c r="D12">
-        <v>0.04681788111540541</v>
+        <v>0.01674590837016865</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.531215428690473</v>
+        <v>11.17382622812391</v>
       </c>
       <c r="G12">
-        <v>0.002511374378877525</v>
+        <v>0.0007256322812467794</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4143007661348435</v>
+        <v>0.7707960756160901</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.46617580200774</v>
+        <v>6.299704098732718</v>
       </c>
       <c r="C13">
-        <v>0.5687507685775586</v>
+        <v>1.70305633722262</v>
       </c>
       <c r="D13">
-        <v>0.04688704170395397</v>
+        <v>0.01655240042139283</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5.518098325323649</v>
+        <v>11.10664183672441</v>
       </c>
       <c r="G13">
-        <v>0.00251176536974335</v>
+        <v>0.0007265059025311258</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.413470277633607</v>
+        <v>0.7658983062000857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.441126838126479</v>
+        <v>6.164141440101275</v>
       </c>
       <c r="C14">
-        <v>0.5620149582173894</v>
+        <v>1.665216065637708</v>
       </c>
       <c r="D14">
-        <v>0.04711419031964681</v>
+        <v>0.015932334029511</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5.47538125822598</v>
+        <v>10.88912126145328</v>
       </c>
       <c r="G14">
-        <v>0.002513045943438502</v>
+        <v>0.0007293488258519448</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4107688487848691</v>
+        <v>0.7500442664142071</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.425821137372509</v>
+        <v>6.081770114876065</v>
       </c>
       <c r="C15">
-        <v>0.5578985547312527</v>
+        <v>1.642239319859925</v>
       </c>
       <c r="D15">
-        <v>0.04725455434801873</v>
+        <v>0.01556070368249252</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>5.449262205104333</v>
+        <v>10.75706296857783</v>
       </c>
       <c r="G15">
-        <v>0.002513834537856943</v>
+        <v>0.0007310857709019736</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4091194913949607</v>
+        <v>0.7404216262752357</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.338681748977706</v>
+        <v>5.61911142296924</v>
       </c>
       <c r="C16">
-        <v>0.5344531891155384</v>
+        <v>1.513403551476472</v>
       </c>
       <c r="D16">
-        <v>0.04807771035276609</v>
+        <v>0.01354570861354887</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>5.30028609738838</v>
+        <v>10.01695280909109</v>
       </c>
       <c r="G16">
-        <v>0.002518418292045193</v>
+        <v>0.0007409830251394747</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3997490662456471</v>
+        <v>0.6865268906022948</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.285730581308599</v>
+        <v>5.342845773014687</v>
       </c>
       <c r="C17">
-        <v>0.5201975502317282</v>
+        <v>1.436643843742161</v>
       </c>
       <c r="D17">
-        <v>0.04859940005987795</v>
+        <v>0.01240134450082664</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>5.209510096509803</v>
+        <v>9.576376856223334</v>
       </c>
       <c r="G17">
-        <v>0.002521288140041926</v>
+        <v>0.0007470156425239654</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3940726223513025</v>
+        <v>0.6544724119000733</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.255458928533358</v>
+        <v>5.186430258787482</v>
       </c>
       <c r="C18">
-        <v>0.5120443965498112</v>
+        <v>1.393238968184562</v>
       </c>
       <c r="D18">
-        <v>0.04890558226980524</v>
+        <v>0.01177306843029768</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>5.157520564986726</v>
+        <v>9.327402166347099</v>
       </c>
       <c r="G18">
-        <v>0.002522960139102609</v>
+        <v>0.0007504752334023654</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3908339076154732</v>
+        <v>0.6363675522449341</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.245241007009213</v>
+        <v>5.133871922866888</v>
       </c>
       <c r="C19">
-        <v>0.5092917879033507</v>
+        <v>1.378662873461508</v>
       </c>
       <c r="D19">
-        <v>0.04901029948857882</v>
+        <v>0.01156515834087557</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>5.139955631132636</v>
+        <v>9.243820238672754</v>
       </c>
       <c r="G19">
-        <v>0.002523529920784051</v>
+        <v>0.0007516451983657143</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3897418164565636</v>
+        <v>0.6302912323544803</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.291348199157255</v>
+        <v>5.371991307783446</v>
       </c>
       <c r="C20">
-        <v>0.5217102833634044</v>
+        <v>1.444735979655491</v>
       </c>
       <c r="D20">
-        <v>0.04854323142926376</v>
+        <v>0.01251998645334851</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>5.219150247943958</v>
+        <v>9.622807262738888</v>
       </c>
       <c r="G20">
-        <v>0.002520980433004594</v>
+        <v>0.000746374604370138</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3946741699277823</v>
+        <v>0.6578494879742181</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.448476499734966</v>
+        <v>6.203818906520723</v>
       </c>
       <c r="C21">
-        <v>0.5639914516879116</v>
+        <v>1.676288033199341</v>
       </c>
       <c r="D21">
-        <v>0.04704721503480513</v>
+        <v>0.01611273110216516</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5.487918607558868</v>
+        <v>10.95276298640067</v>
       </c>
       <c r="G21">
-        <v>0.00251266893182599</v>
+        <v>0.0007285147418474218</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.411561208515181</v>
+        <v>0.7546822872107981</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.552843839688876</v>
+        <v>6.776399919330117</v>
       </c>
       <c r="C22">
-        <v>0.5920474054196916</v>
+        <v>1.836384774487215</v>
       </c>
       <c r="D22">
-        <v>0.04612442978861608</v>
+        <v>0.01881623028328505</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.665639604176533</v>
+        <v>11.87332162144742</v>
       </c>
       <c r="G22">
-        <v>0.002507425334750576</v>
+        <v>0.0007166556277220993</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4228364870939458</v>
+        <v>0.8218181612681832</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.496986174824087</v>
+        <v>6.467774600052849</v>
       </c>
       <c r="C23">
-        <v>0.5770342205564134</v>
+        <v>1.750016698256331</v>
       </c>
       <c r="D23">
-        <v>0.04661188760558943</v>
+        <v>0.01733574988240605</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5.570593440261121</v>
+        <v>11.37663948647707</v>
       </c>
       <c r="G23">
-        <v>0.002510206773803425</v>
+        <v>0.0007230074868825548</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4167965745865416</v>
+        <v>0.7855841606614291</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.288807942855101</v>
+        <v>5.358807163513802</v>
       </c>
       <c r="C24">
-        <v>0.5210262441294731</v>
+        <v>1.441075287321496</v>
       </c>
       <c r="D24">
-        <v>0.04856860578636812</v>
+        <v>0.01246625701329407</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>5.214791317193686</v>
+        <v>9.601802745808612</v>
       </c>
       <c r="G24">
-        <v>0.002521119478630341</v>
+        <v>0.0007466644437020459</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.394402133238188</v>
+        <v>0.6563217127015832</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.071287536128068</v>
+        <v>4.25544570812616</v>
       </c>
       <c r="C25">
-        <v>0.4623772575969838</v>
+        <v>1.135660897224852</v>
       </c>
       <c r="D25">
-        <v>0.05091298837378666</v>
+        <v>0.008332095234568015</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.839455023187185</v>
+        <v>7.853001393174907</v>
       </c>
       <c r="G25">
-        <v>0.002533707351248196</v>
+        <v>0.0007718228539294354</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3712458148970654</v>
+        <v>0.529301676284831</v>
       </c>
       <c r="K25">
         <v>0</v>
